--- a/CCICertificate/WebContent/resources/in/WasteNumbers.xlsx
+++ b/CCICertificate/WebContent/resources/in/WasteNumbers.xlsx
@@ -1,34 +1,181 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="8595" windowHeight="4185"/>
+    <workbookView xWindow="360" yWindow="75" windowWidth="18195" windowHeight="8250"/>
   </bookViews>
   <sheets>
-    <sheet name="Report" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Код ТНВЭД для формирования отчета</t>
-  </si>
-  <si>
-    <t>8580 90</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+  <si>
+    <t>2710 19 880 0</t>
+  </si>
+  <si>
+    <t>4011 50 000 0</t>
+  </si>
+  <si>
+    <t>4811 59 000 9</t>
+  </si>
+  <si>
+    <t>7321 11</t>
+  </si>
+  <si>
+    <t>8415 10</t>
+  </si>
+  <si>
+    <t>8422 11 000 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8443 31 </t>
+  </si>
+  <si>
+    <t>8443 32 100</t>
+  </si>
+  <si>
+    <t>8443 32 910</t>
+  </si>
+  <si>
+    <t>8443 32 930 0</t>
+  </si>
+  <si>
+    <t>8443 39 100</t>
+  </si>
+  <si>
+    <t>8443 39 310 0</t>
+  </si>
+  <si>
+    <t>8452 10</t>
+  </si>
+  <si>
+    <t>8470 10 000 0</t>
+  </si>
+  <si>
+    <t>8516 10</t>
+  </si>
+  <si>
+    <t>8516 21 000 0 – 8516 29</t>
+  </si>
+  <si>
+    <t>8516 60 10</t>
+  </si>
+  <si>
+    <t>8517 11 000 0 – 8517 18 000 0</t>
+  </si>
+  <si>
+    <t>8517 69</t>
+  </si>
+  <si>
+    <t>8525 80 300 0</t>
+  </si>
+  <si>
+    <t>9006 40 000 0 – 9006 69 000 0</t>
+  </si>
+  <si>
+    <t>9025 11 200</t>
+  </si>
+  <si>
+    <t>9504 50 000</t>
+  </si>
+  <si>
+    <t>2710 19 820 0</t>
+  </si>
+  <si>
+    <t>3920 10 230 0, 3920 10 810 0</t>
+  </si>
+  <si>
+    <t>3920 10</t>
+  </si>
+  <si>
+    <t>3920 20</t>
+  </si>
+  <si>
+    <t>3923 40</t>
+  </si>
+  <si>
+    <t>4011 10 000</t>
+  </si>
+  <si>
+    <t>4011 40 000 0</t>
+  </si>
+  <si>
+    <t>4012 11 000 0</t>
+  </si>
+  <si>
+    <t>4012 19 000 0</t>
+  </si>
+  <si>
+    <t>4012 20 000 9</t>
+  </si>
+  <si>
+    <t>4811 51 000 9</t>
+  </si>
+  <si>
+    <t>4819 60 000 0</t>
+  </si>
+  <si>
+    <t>7010 20 000 0, 7010 90 710 0, 7010 90 790 0</t>
+  </si>
+  <si>
+    <t>8450 90 000 0</t>
+  </si>
+  <si>
+    <t>8451 21 000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8451 29 000 0</t>
+  </si>
+  <si>
+    <t>8506 90 000 0</t>
+  </si>
+  <si>
+    <t>8508 70 000</t>
+  </si>
+  <si>
+    <t>8509 90 000 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8510 90 000 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8516 31 000 – 8516 40 000 0 </t>
+  </si>
+  <si>
+    <t>8516 71 000 0 – 8516 79</t>
+  </si>
+  <si>
+    <t>8516 50 000 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8516 60 500 0 – 8516 60 900 0</t>
+  </si>
+  <si>
+    <t>8519 20</t>
+  </si>
+  <si>
+    <t>8539 31 – 8539 49 000 0</t>
+  </si>
+  <si>
+    <t>Код ТНВЭД</t>
+  </si>
+  <si>
+    <t>Исключая</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -36,6 +183,13 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,7 +200,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -54,122 +208,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -500,92 +577,345 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" style="37" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="8"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="36">
-        <v>8540</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="15"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="36">
-        <v>8560</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="22"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="36">
-        <v>8570</v>
-      </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="29"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>3922</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>3923</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>3924</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="36"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="37">
+    </row>
+    <row r="12" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>4013</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>4819</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>7010</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>8418</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
         <v>8450</v>
       </c>
+      <c r="B30" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>8467</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>8471</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>8506</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>8508</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>8509</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>8510</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>8521</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>8527</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>8528</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" blackAndWhite="1" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/CCICertificate/WebContent/resources/in/WasteNumbers.xlsx
+++ b/CCICertificate/WebContent/resources/in/WasteNumbers.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="18195" windowHeight="8250"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="20220" windowHeight="12900"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>2710 19 880 0</t>
   </si>
@@ -169,6 +170,27 @@
   </si>
   <si>
     <t>Исключая</t>
+  </si>
+  <si>
+    <t>8516 21</t>
+  </si>
+  <si>
+    <t>8516 31 000</t>
+  </si>
+  <si>
+    <t>8516 71 000 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8516 60 500 0 </t>
+  </si>
+  <si>
+    <t>8517 11 000 0</t>
+  </si>
+  <si>
+    <t>8539 31</t>
+  </si>
+  <si>
+    <t>9006 40 000 0</t>
   </si>
 </sst>
 </file>
@@ -579,17 +601,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="46.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
@@ -597,17 +619,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
@@ -615,17 +637,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>3922</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>3923</v>
       </c>
@@ -633,57 +655,57 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>3924</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>4013</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>4819</v>
       </c>
@@ -691,7 +713,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>7010</v>
       </c>
@@ -699,57 +721,57 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>8418</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>8450</v>
       </c>
@@ -757,37 +779,37 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>8467</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>8471</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>8506</v>
       </c>
@@ -795,7 +817,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>8508</v>
       </c>
@@ -803,7 +825,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>8509</v>
       </c>
@@ -811,7 +833,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>8510</v>
       </c>
@@ -819,47 +841,62 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>18</v>
       </c>
@@ -867,47 +904,53 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>8519</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>8521</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>8527</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>8528</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>22</v>
       </c>

--- a/CCICertificate/WebContent/resources/in/WasteNumbers.xlsx
+++ b/CCICertificate/WebContent/resources/in/WasteNumbers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="20220" windowHeight="12900"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="20985" windowHeight="8670"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A36:Q60"/>
 </workbook>
 </file>
 
@@ -601,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/CCICertificate/WebContent/resources/in/WasteNumbers.xlsx
+++ b/CCICertificate/WebContent/resources/in/WasteNumbers.xlsx
@@ -2,22 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="20985" windowHeight="8670"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="20760" windowHeight="9585"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A36:Q60"/>
+  <calcPr calcId="0" refMode="R1C1"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="369">
   <si>
     <t>2710 19 880 0</t>
   </si>
@@ -169,35 +169,968 @@
     <t>Код ТНВЭД</t>
   </si>
   <si>
-    <t>Исключая</t>
-  </si>
-  <si>
-    <t>8516 21</t>
-  </si>
-  <si>
-    <t>8516 31 000</t>
-  </si>
-  <si>
-    <t>8516 71 000 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8516 60 500 0 </t>
-  </si>
-  <si>
-    <t>8517 11 000 0</t>
-  </si>
-  <si>
-    <t>8539 31</t>
-  </si>
-  <si>
-    <t>9006 40 000 0</t>
+    <t>Ш1</t>
+  </si>
+  <si>
+    <t>Ш2</t>
+  </si>
+  <si>
+    <t>Ш3</t>
+  </si>
+  <si>
+    <t>3922[^0-9]{1,2}[0-9]{2}[^0-9]{1,2}[0-9]{3}[^0-9]{1,2}[0-9]</t>
+  </si>
+  <si>
+    <t>3923[^0-9]{1,2}[0-9]{2}[^0-9]{1,2}[0-9]{3}[^0-9]{1,2}[0-9]</t>
+  </si>
+  <si>
+    <t>3924[^0-9]{1,2}[0-9]{2}[^0-9]{1,2}[0-9]{3}[^0-9]{1,2}[0-9]</t>
+  </si>
+  <si>
+    <t>4013[^0-9]{1,2}[0-9]{2}[^0-9]{1,2}[0-9]{3}[^0-9]{1,2}[0-9]</t>
+  </si>
+  <si>
+    <t>4819[^0-9]{1,2}[0-9]{2}[^0-9]{1,2}[0-9]{3}[^0-9]{1,2}[0-9]</t>
+  </si>
+  <si>
+    <t>7010[^0-9]{1,2}[0-9]{2}[^0-9]{1,2}[0-9]{3}[^0-9]{1,2}[0-9]</t>
+  </si>
+  <si>
+    <t>8418[^0-9]{1,2}[0-9]{2}[^0-9]{1,2}[0-9]{3}[^0-9]{1,2}[0-9]</t>
+  </si>
+  <si>
+    <t>8450[^0-9]{1,2}[0-9]{2}[^0-9]{1,2}[0-9]{3}[^0-9]{1,2}[0-9]</t>
+  </si>
+  <si>
+    <t>8467[^0-9]{1,2}[0-9]{2}[^0-9]{1,2}[0-9]{3}[^0-9]{1,2}[0-9]</t>
+  </si>
+  <si>
+    <t>8471[^0-9]{1,2}[0-9]{2}[^0-9]{1,2}[0-9]{3}[^0-9]{1,2}[0-9]</t>
+  </si>
+  <si>
+    <t>8506[^0-9]{1,2}[0-9]{2}[^0-9]{1,2}[0-9]{3}[^0-9]{1,2}[0-9]</t>
+  </si>
+  <si>
+    <t>8508[^0-9]{1,2}[0-9]{2}[^0-9]{1,2}[0-9]{3}[^0-9]{1,2}[0-9]</t>
+  </si>
+  <si>
+    <t>8509[^0-9]{1,2}[0-9]{2}[^0-9]{1,2}[0-9]{3}[^0-9]{1,2}[0-9]</t>
+  </si>
+  <si>
+    <t>8510[^0-9]{1,2}[0-9]{2}[^0-9]{1,2}[0-9]{3}[^0-9]{1,2}[0-9]</t>
+  </si>
+  <si>
+    <t>8519[^0-9]{1,2}[0-9]{2}[^0-9]{1,2}[0-9]{3}[^0-9]{1,2}[0-9]</t>
+  </si>
+  <si>
+    <t>8521[^0-9]{1,2}[0-9]{2}[^0-9]{1,2}[0-9]{3}[^0-9]{1,2}[0-9]</t>
+  </si>
+  <si>
+    <t>8527[^0-9]{1,2}[0-9]{2}[^0-9]{1,2}[0-9]{3}[^0-9]{1,2}[0-9]</t>
+  </si>
+  <si>
+    <t>8528[^0-9]{1,2}[0-9]{2}[^0-9]{1,2}[0-9]{3}[^0-9]{1,2}[0-9]</t>
+  </si>
+  <si>
+    <t>2710[^0-9]{1,2}19[^0-9]{1,2}820[^0-9]{1,2}0</t>
+  </si>
+  <si>
+    <t>2710[^0-9]{1,2}19[^0-9]{1,2}880[^0-9]{1,2}0</t>
+  </si>
+  <si>
+    <t>3920[^0-9]{1,2}10[^0-9]{1,2}[0-9]{3}[^0-9]{1,2}[0-9]</t>
+  </si>
+  <si>
+    <t>3920[^0-9]{1,2}20[^0-9]{1,2}[0-9]{3}[^0-9]{1,2}[0-9]</t>
+  </si>
+  <si>
+    <t>4011[^0-9]{1,2}10[^0-9]{1,2}000[^0-9]{1,2}[0-9]</t>
+  </si>
+  <si>
+    <t>4011[^0-9]{1,2}40[^0-9]{1,2}000[^0-9]{1,2}0</t>
+  </si>
+  <si>
+    <t>4011[^0-9]{1,2}50[^0-9]{1,2}000[^0-9]{1,2}0</t>
+  </si>
+  <si>
+    <t>4012[^0-9]{1,2}11[^0-9]{1,2}000[^0-9]{1,2}0</t>
+  </si>
+  <si>
+    <t>4012[^0-9]{1,2}19[^0-9]{1,2}000[^0-9]{1,2}0</t>
+  </si>
+  <si>
+    <t>4012[^0-9]{1,2}20[^0-9]{1,2}000[^0-9]{1,2}9</t>
+  </si>
+  <si>
+    <t>4811[^0-9]{1,2}51[^0-9]{1,2}000[^0-9]{1,2}9</t>
+  </si>
+  <si>
+    <t>4811[^0-9]{1,2}59[^0-9]{1,2}000[^0-9]{1,2}9</t>
+  </si>
+  <si>
+    <t>7321[^0-9]{1,2}11[^0-9]{1,2}[0-9]{3}[^0-9]{1,2}[0-9]</t>
+  </si>
+  <si>
+    <t>8415[^0-9]{1,2}10[^0-9]{1,2}[0-9]{3}[^0-9]{1,2}[0-9]</t>
+  </si>
+  <si>
+    <t>8422[^0-9]{1,2}11[^0-9]{1,2}000[^0-9]{1,2}0</t>
+  </si>
+  <si>
+    <t>8443[^0-9]{1,2}31 [^0-9]{1,2}[0-9]{3}[^0-9]{1,2}[0-9]</t>
+  </si>
+  <si>
+    <t>8443[^0-9]{1,2}32[^0-9]{1,2}100[^0-9]{1,2}[0-9]</t>
+  </si>
+  <si>
+    <t>8443[^0-9]{1,2}32[^0-9]{1,2}910[^0-9]{1,2}[0-9]</t>
+  </si>
+  <si>
+    <t>8443[^0-9]{1,2}32[^0-9]{1,2}930[^0-9]{1,2}0</t>
+  </si>
+  <si>
+    <t>8443[^0-9]{1,2}39[^0-9]{1,2}100[^0-9]{1,2}[0-9]</t>
+  </si>
+  <si>
+    <t>8443[^0-9]{1,2}39[^0-9]{1,2}310[^0-9]{1,2}0</t>
+  </si>
+  <si>
+    <t>8451[^0-9]{1,2}21[^0-9]{1,2}000[^0-9]{1,2}[0-9]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8451[^0-9]{1,2}29[^0-9]{1,2}000[^0-9]{1,2}0</t>
+  </si>
+  <si>
+    <t>8452[^0-9]{1,2}10[^0-9]{1,2}[0-9]{3}[^0-9]{1,2}[0-9]</t>
+  </si>
+  <si>
+    <t>8470[^0-9]{1,2}10[^0-9]{1,2}000[^0-9]{1,2}0</t>
+  </si>
+  <si>
+    <t>8516[^0-9]{1,2}10[^0-9]{1,2}[0-9]{3}[^0-9]{1,2}[0-9]</t>
+  </si>
+  <si>
+    <t>8516[^0-9]{1,2}50[^0-9]{1,2}000[^0-9]{1,2}0</t>
+  </si>
+  <si>
+    <t>8516[^0-9]{1,2}60[^0-9]{1,2}10[^0-9]{1,2}[0-9]</t>
+  </si>
+  <si>
+    <t>8517[^0-9]{1,2}69[^0-9]{1,2}[0-9]{3}[^0-9]{1,2}[0-9]</t>
+  </si>
+  <si>
+    <t>8525[^0-9]{1,2}80[^0-9]{1,2}300[^0-9]{1,2}0</t>
+  </si>
+  <si>
+    <t>9025[^0-9]{1,2}11[^0-9]{1,2}200[^0-9]{1,2}[0-9]</t>
+  </si>
+  <si>
+    <t>9504[^0-9]{1,2}50[^0-9]{1,2}000[^0-9]{1,2}[0-9]</t>
+  </si>
+  <si>
+    <t>2710[^0-9]{1,2}19[^0-9]{1,2}8200</t>
+  </si>
+  <si>
+    <t>2710[^0-9]{1,2}19[^0-9]{1,2}8800</t>
+  </si>
+  <si>
+    <t>3920[^0-9]{1,2}10[^0-9]{1,2}[0-9]{4}</t>
+  </si>
+  <si>
+    <t>3920[^0-9]{1,2}20[^0-9]{1,2}[0-9]{4}</t>
+  </si>
+  <si>
+    <t>3922[^0-9]{1,2}[0-9]{2}[^0-9]{1,2}[0-9]{4}</t>
+  </si>
+  <si>
+    <t>3923[^0-9]{1,2}[0-9]{2}[^0-9]{1,2}[0-9]{4}</t>
+  </si>
+  <si>
+    <t>3924[^0-9]{1,2}[0-9]{2}[^0-9]{1,2}[0-9]{4}</t>
+  </si>
+  <si>
+    <t>4011[^0-9]{1,2}10[^0-9]{1,2}000</t>
+  </si>
+  <si>
+    <t>4011[^0-9]{1,2}40[^0-9]{1,2}0000</t>
+  </si>
+  <si>
+    <t>4011[^0-9]{1,2}50[^0-9]{1,2}0000</t>
+  </si>
+  <si>
+    <t>4012[^0-9]{1,2}11[^0-9]{1,2}0000</t>
+  </si>
+  <si>
+    <t>4012[^0-9]{1,2}19[^0-9]{1,2}0000</t>
+  </si>
+  <si>
+    <t>4012[^0-9]{1,2}20[^0-9]{1,2}0009</t>
+  </si>
+  <si>
+    <t>4013[^0-9]{1,2}[0-9]{2}[^0-9]{1,2}[0-9]{4}</t>
+  </si>
+  <si>
+    <t>4811[^0-9]{1,2}51[^0-9]{1,2}0009</t>
+  </si>
+  <si>
+    <t>4811[^0-9]{1,2}59[^0-9]{1,2}0009</t>
+  </si>
+  <si>
+    <t>4819[^0-9]{1,2}[0-9]{2}[^0-9]{1,2}[0-9]{4}</t>
+  </si>
+  <si>
+    <t>7010[^0-9]{1,2}[0-9]{2}[^0-9]{1,2}[0-9]{4}</t>
+  </si>
+  <si>
+    <t>7321[^0-9]{1,2}11[^0-9]{1,2}[0-9]{4}</t>
+  </si>
+  <si>
+    <t>8415[^0-9]{1,2}10[^0-9]{1,2}[0-9]{4}</t>
+  </si>
+  <si>
+    <t>8418[^0-9]{1,2}[0-9]{2}[^0-9]{1,2}[0-9]{4}</t>
+  </si>
+  <si>
+    <t>8422[^0-9]{1,2}11[^0-9]{1,2}0000</t>
+  </si>
+  <si>
+    <t>8443[^0-9]{1,2}31 [^0-9]{1,2}[0-9]{4}</t>
+  </si>
+  <si>
+    <t>8443[^0-9]{1,2}32[^0-9]{1,2}100</t>
+  </si>
+  <si>
+    <t>8443[^0-9]{1,2}32[^0-9]{1,2}910</t>
+  </si>
+  <si>
+    <t>8443[^0-9]{1,2}32[^0-9]{1,2}9300</t>
+  </si>
+  <si>
+    <t>8443[^0-9]{1,2}39[^0-9]{1,2}100</t>
+  </si>
+  <si>
+    <t>8443[^0-9]{1,2}39[^0-9]{1,2}3100</t>
+  </si>
+  <si>
+    <t>8450[^0-9]{1,2}[0-9]{2}[^0-9]{1,2}[0-9]{4}</t>
+  </si>
+  <si>
+    <t>8451[^0-9]{1,2}21[^0-9]{1,2}000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8451[^0-9]{1,2}29[^0-9]{1,2}0000</t>
+  </si>
+  <si>
+    <t>8452[^0-9]{1,2}10[^0-9]{1,2}[0-9]{4}</t>
+  </si>
+  <si>
+    <t>8467[^0-9]{1,2}[0-9]{2}[^0-9]{1,2}[0-9]{4}</t>
+  </si>
+  <si>
+    <t>8470[^0-9]{1,2}10[^0-9]{1,2}0000</t>
+  </si>
+  <si>
+    <t>8471[^0-9]{1,2}[0-9]{2}[^0-9]{1,2}[0-9]{4}</t>
+  </si>
+  <si>
+    <t>8506[^0-9]{1,2}[0-9]{2}[^0-9]{1,2}[0-9]{4}</t>
+  </si>
+  <si>
+    <t>8508[^0-9]{1,2}[0-9]{2}[^0-9]{1,2}[0-9]{4}</t>
+  </si>
+  <si>
+    <t>8509[^0-9]{1,2}[0-9]{2}[^0-9]{1,2}[0-9]{4}</t>
+  </si>
+  <si>
+    <t>8510[^0-9]{1,2}[0-9]{2}[^0-9]{1,2}[0-9]{4}</t>
+  </si>
+  <si>
+    <t>8516[^0-9]{1,2}10[^0-9]{1,2}[0-9]{4}</t>
+  </si>
+  <si>
+    <t>8516[^0-9]{1,2}50[^0-9]{1,2}0000</t>
+  </si>
+  <si>
+    <t>8516[^0-9]{1,2}60[^0-9]{1,2}10</t>
+  </si>
+  <si>
+    <t>8517[^0-9]{1,2}69[^0-9]{1,2}[0-9]{4}</t>
+  </si>
+  <si>
+    <t>8519[^0-9]{1,2}[0-9]{2}[^0-9]{1,2}[0-9]{4}</t>
+  </si>
+  <si>
+    <t>8521[^0-9]{1,2}[0-9]{2}[^0-9]{1,2}[0-9]{4}</t>
+  </si>
+  <si>
+    <t>8525[^0-9]{1,2}80[^0-9]{1,2}3000</t>
+  </si>
+  <si>
+    <t>8527[^0-9]{1,2}[0-9]{2}[^0-9]{1,2}[0-9]{4}</t>
+  </si>
+  <si>
+    <t>8528[^0-9]{1,2}[0-9]{2}[^0-9]{1,2}[0-9]{4}</t>
+  </si>
+  <si>
+    <t>9025[^0-9]{1,2}11[^0-9]{1,2}200</t>
+  </si>
+  <si>
+    <t>9504[^0-9]{1,2}50[^0-9]{1,2}000</t>
+  </si>
+  <si>
+    <t>3920[^0-9]{1,2}10[^0-9]{1,2}230[^0-9]{1,2}0|3920[^0-9]{1,2}10[^0-9]{1,2}810[^0-9]{1,2}0</t>
+  </si>
+  <si>
+    <t>3920[^0-9]{1,2}10[^0-9]{1,2}2300|3920[^0-9]{1,2}10[^0-9]{1,2}8100</t>
+  </si>
+  <si>
+    <t>3923[^0-9]{1,2}40[^0-9]{1,2}[0-9]{3}[^0-9]{1,2}[0-9]</t>
+  </si>
+  <si>
+    <t>3923[^0-9]{1,2}40[^0-9]{1,2}[0-9]{4}</t>
+  </si>
+  <si>
+    <t>4819[^0-9]{1,2}60[^0-9]{1,2}000[^0-9]{1,2}0</t>
+  </si>
+  <si>
+    <t>4819[^0-9]{1,2}60[^0-9]{1,2}0000</t>
+  </si>
+  <si>
+    <t>7010[^0-9]{1,2}20[^0-9]{1,2}000[^0-9]{1,2}0|7010[^0-9]{1,2}90[^0-9]{1,2}710[^0-9]{1,2}0|7010[^0-9]{1,2}90[^0-9]{1,2}790[^0-9]{1,2}0</t>
+  </si>
+  <si>
+    <t>7010[^0-9]{1,2}20[^0-9]{1,2}0000|7010[^0-9]{1,2}90[^0-9]{1,2}7100|7010[^0-9]{1,2}90[^0-9]{1,2}7900</t>
+  </si>
+  <si>
+    <t>8450[^0-9]{1,2}90[^0-9]{1,2}000[^0-9]{1,2}0</t>
+  </si>
+  <si>
+    <t>8450[^0-9]{1,2}90[^0-9]{1,2}0000</t>
+  </si>
+  <si>
+    <t>8506[^0-9]{1,2}90[^0-9]{1,2}000[^0-9]{1,2}0</t>
+  </si>
+  <si>
+    <t>8506[^0-9]{1,2}90[^0-9]{1,2}0000</t>
+  </si>
+  <si>
+    <t>8508[^0-9]{1,2}70[^0-9]{1,2}000[^0-9]{1,2}[0-9]</t>
+  </si>
+  <si>
+    <t>8508[^0-9]{1,2}70[^0-9]{1,2}000</t>
+  </si>
+  <si>
+    <t>8509[^0-9]{1,2}90[^0-9]{1,2}000[^0-9]{1,2}0</t>
+  </si>
+  <si>
+    <t>8509[^0-9]{1,2}90[^0-9]{1,2}0000</t>
+  </si>
+  <si>
+    <t>8510[^0-9]{1,2}90[^0-9]{1,2}000[^0-9]{1,2}0</t>
+  </si>
+  <si>
+    <t>8510[^0-9]{1,2}90[^0-9]{1,2}0000</t>
+  </si>
+  <si>
+    <t>8519[^0-9]{1,2}20[^0-9]{1,2}[0-9]{3}[^0-9]{1,2}[0-9]</t>
+  </si>
+  <si>
+    <t>8519[^0-9]{1,2}20[^0-9]{1,2}[0-9]{4}</t>
+  </si>
+  <si>
+    <t>Исключения</t>
+  </si>
+  <si>
+    <t>8516[^0-9]{1,2}2[1-9]{1}[^0-9]{1,2}[0-9]{3}[^0-9]{1,2}[0-9]</t>
+  </si>
+  <si>
+    <t>8516[^0-9]{1,2}2[1-9]{1}[^0-9]{1,2}[0-9]{4}</t>
+  </si>
+  <si>
+    <t>85162[1-9]{1}[0-9]{4}</t>
+  </si>
+  <si>
+    <t>8516[^0-9]{1,2}7[1-9]{1}[^0-9]{1,2}[0-9]{3}[^0-9]{1,2}[0-9]</t>
+  </si>
+  <si>
+    <t>8516[^0-9]{1,2}7[1-9]{1}[^0-9]{1,2}[0-9]{4}</t>
+  </si>
+  <si>
+    <t>85167[1-9]{1}[0-9]{4}</t>
+  </si>
+  <si>
+    <t>8516[^0-9]{1,2}3[1-9]{1}[^0-9]{1,2}[0-9]{3}[^0-9]{1,2}[0-9]|8516[^0-9]{1,2}40[^0-9]{1,2}000[^0-9]{1,2}0</t>
+  </si>
+  <si>
+    <t>8516[^0-9]{1,2}3[1-9]{1}[^0-9]{1,2}[0-9]{4}|8516[^0-9]{1,2}40[^0-9]{1,2}0000</t>
+  </si>
+  <si>
+    <t>85163[1-9]{1}[0-9]{4}|8516400000</t>
+  </si>
+  <si>
+    <t>8516[^0-9]{1,2}60[^0-9]{1,2}[5-8]{1}[0-9]{2}[^0-9]{1,2}[0-9]|8516[^0-9]{1,2}60[^0-9]{1,2}900[^0-9]{1,2}0</t>
+  </si>
+  <si>
+    <t>8516[^0-9]{1,2}60[^0-9]{1,2}[5-8]{1}[0-9]{3}|8516[^0-9]{1,2}60[^0-9]{1,2}9000</t>
+  </si>
+  <si>
+    <t>851660[5-8]{1}[0-9]{3}|8516609000</t>
+  </si>
+  <si>
+    <t>8517[^0-9]{1,2}1[1-7]{1}[^0-9]{1,2}[0-9]{3}[^0-9]{1,2}[0-9]|8517[^0-9]{1,2}18[^0-9]{1,2}000[^0-9]{1,2}0</t>
+  </si>
+  <si>
+    <t>8517[^0-9]{1,2}1[1-7]{1}[^0-9]{1,2}[0-9]{4}|8517[^0-9]{1,2}18[^0-9]{1,2}0000</t>
+  </si>
+  <si>
+    <t>85171[1-7]{1}[0-9]{4}|8517180000</t>
+  </si>
+  <si>
+    <t>85393[1-9][0-9]{4}|85394[0-8][0-9]{4}|8539490000</t>
+  </si>
+  <si>
+    <t>8539[^0-9]{1,2}3[1-9][^0-9]{1,2}[0-9]{4}|8539[^0-9]{1,2}4[0-8][^0-9]{1,2}[0-9]{4}|8539[^0-9]{1,2}49[^0-9]{1,2}0000</t>
+  </si>
+  <si>
+    <t>8539[^0-9]{1,2}3[1-9][^0-9]{1,2}[0-9]{3}[^0-9]{1,2}[0-9]|8539[^0-9]{1,2}4[0-8][^0-9]{1,2}[0-9]{3}[^0-9]{1,2}[0-9]|8539[^0-9]{1,2}49[^0-9]{1,2}000[^0-9]{1,2}0</t>
+  </si>
+  <si>
+    <t>9006[^0-9]{1,2}[4-5][0-9][^0-9]{1,2}[0-9]{3}[^0-9]{1,2}[0-9]|9006[^0-9]{1,2}6[0-8][^0-9]{1,2}[0-9]{3}[^0-9]{1,2}[0-9]|9006[^0-9]{1,2}69[^0-9]{1,2}000[^0-9]{1,2}0</t>
+  </si>
+  <si>
+    <t>9006[^0-9]{1,2}[4-5][0-9][^0-9]{1,2}[0-9]{4}|9006[^0-9]{1,2}6[0-8][^0-9]{1,2}[0-9]{4}|9006[^0-9]{1,2}69[^0-9]{1,2}0000</t>
+  </si>
+  <si>
+    <t>9006[4-5][0-9]{5}|90066[0-8][0-9]{4}|9006690000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2710198200 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2710198800 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">392010[0-9]{4} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3920102300|3920108100 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">392020[0-9]{4} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3922[0-9]{6} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3923[0-9]{6} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">392340[0-9]{4} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3924[0-9]{6} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">401110000[0-9]{1} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4011400000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4011500000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4012110000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4012190000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4012200009 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4013[0-9]{6} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4811510009 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4811590009 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4819[0-9]{6} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4819600000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7010[0-9]{6} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7010200000|7010907100|7010907900 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">732111[0-9]{4} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">841510[0-9]{4} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8418[0-9]{6} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8422110000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">844331 [0-9]{3} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">844332100[0-9]{1} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">844332910[0-9]{1} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8443329300 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">844339100[0-9]{1} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8443393100 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8450[0-9]{6} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8450900000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">845121000[0-9]{1} </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8451290000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">845210[0-9]{4} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8467[0-9]{6} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8470100000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8471[0-9]{6} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8506[0-9]{6} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8506900000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8508[0-9]{6} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">850870000[0-9]{1} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8509[0-9]{6} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8509900000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8510[0-9]{6} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8510900000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">851610[0-9]{4} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8516500000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">85166010[0-9]{2} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">851769[0-9]{4} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">851920[0-9]{4} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8519[0-9]{6} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8521[0-9]{6} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8525803000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8527[0-9]{6} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8528[0-9]{6} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">902511200[0-9]{1} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">950450000[0-9]{1} </t>
+  </si>
+  <si>
+    <t>2710198200</t>
+  </si>
+  <si>
+    <t>2710198800</t>
+  </si>
+  <si>
+    <t>3920100000</t>
+  </si>
+  <si>
+    <t>3920109999</t>
+  </si>
+  <si>
+    <t>3920200000</t>
+  </si>
+  <si>
+    <t>3920209999</t>
+  </si>
+  <si>
+    <t>3922000000</t>
+  </si>
+  <si>
+    <t>3922999999</t>
+  </si>
+  <si>
+    <t>3923000000</t>
+  </si>
+  <si>
+    <t>3923999999</t>
+  </si>
+  <si>
+    <t>3924000000</t>
+  </si>
+  <si>
+    <t>3924999999</t>
+  </si>
+  <si>
+    <t>4011100000</t>
+  </si>
+  <si>
+    <t>4011100009</t>
+  </si>
+  <si>
+    <t>4011400000</t>
+  </si>
+  <si>
+    <t>4011500000</t>
+  </si>
+  <si>
+    <t>4012110000</t>
+  </si>
+  <si>
+    <t>4012190000</t>
+  </si>
+  <si>
+    <t>4012200009</t>
+  </si>
+  <si>
+    <t>4013000000</t>
+  </si>
+  <si>
+    <t>4013999999</t>
+  </si>
+  <si>
+    <t>4811510009</t>
+  </si>
+  <si>
+    <t>4811590009</t>
+  </si>
+  <si>
+    <t>4819000000</t>
+  </si>
+  <si>
+    <t>4819999999</t>
+  </si>
+  <si>
+    <t>7010000000</t>
+  </si>
+  <si>
+    <t>7010999999</t>
+  </si>
+  <si>
+    <t>7321110000</t>
+  </si>
+  <si>
+    <t>7321119999</t>
+  </si>
+  <si>
+    <t>8415100000</t>
+  </si>
+  <si>
+    <t>8415109999</t>
+  </si>
+  <si>
+    <t>8418000000</t>
+  </si>
+  <si>
+    <t>8418999999</t>
+  </si>
+  <si>
+    <t>8422110000</t>
+  </si>
+  <si>
+    <t>8443310000</t>
+  </si>
+  <si>
+    <t>8443319999</t>
+  </si>
+  <si>
+    <t>8443321000</t>
+  </si>
+  <si>
+    <t>8443321009</t>
+  </si>
+  <si>
+    <t>8443329100</t>
+  </si>
+  <si>
+    <t>8443329109</t>
+  </si>
+  <si>
+    <t>8443329300</t>
+  </si>
+  <si>
+    <t>8443391000</t>
+  </si>
+  <si>
+    <t>8443391009</t>
+  </si>
+  <si>
+    <t>8443393100</t>
+  </si>
+  <si>
+    <t>8450000000</t>
+  </si>
+  <si>
+    <t>8450999999</t>
+  </si>
+  <si>
+    <t>8451210000</t>
+  </si>
+  <si>
+    <t>8451210009</t>
+  </si>
+  <si>
+    <t>8451290000</t>
+  </si>
+  <si>
+    <t>8452100000</t>
+  </si>
+  <si>
+    <t>8452109999</t>
+  </si>
+  <si>
+    <t>8467000000</t>
+  </si>
+  <si>
+    <t>8467999999</t>
+  </si>
+  <si>
+    <t>8470100000</t>
+  </si>
+  <si>
+    <t>8471000000</t>
+  </si>
+  <si>
+    <t>8471999999</t>
+  </si>
+  <si>
+    <t>8506000000</t>
+  </si>
+  <si>
+    <t>8506999999</t>
+  </si>
+  <si>
+    <t>8508000000</t>
+  </si>
+  <si>
+    <t>8508999999</t>
+  </si>
+  <si>
+    <t>8509000000</t>
+  </si>
+  <si>
+    <t>8509999999</t>
+  </si>
+  <si>
+    <t>8510000000</t>
+  </si>
+  <si>
+    <t>8510999999</t>
+  </si>
+  <si>
+    <t>8516100000</t>
+  </si>
+  <si>
+    <t>8516109999</t>
+  </si>
+  <si>
+    <t>8516210000</t>
+  </si>
+  <si>
+    <t>8516299999</t>
+  </si>
+  <si>
+    <t>8516310000</t>
+  </si>
+  <si>
+    <t>8516400000</t>
+  </si>
+  <si>
+    <t>8516710000</t>
+  </si>
+  <si>
+    <t>8516799999</t>
+  </si>
+  <si>
+    <t>8516500000</t>
+  </si>
+  <si>
+    <t>8516605000</t>
+  </si>
+  <si>
+    <t>8516609000</t>
+  </si>
+  <si>
+    <t>8516601000</t>
+  </si>
+  <si>
+    <t>8516601099</t>
+  </si>
+  <si>
+    <t>8517110000</t>
+  </si>
+  <si>
+    <t>8517180000</t>
+  </si>
+  <si>
+    <t>8517690000</t>
+  </si>
+  <si>
+    <t>8517699999</t>
+  </si>
+  <si>
+    <t>8519000000</t>
+  </si>
+  <si>
+    <t>8519999999</t>
+  </si>
+  <si>
+    <t>8521000000</t>
+  </si>
+  <si>
+    <t>8521999999</t>
+  </si>
+  <si>
+    <t>8525803000</t>
+  </si>
+  <si>
+    <t>8527000000</t>
+  </si>
+  <si>
+    <t>8527999999</t>
+  </si>
+  <si>
+    <t>8528000000</t>
+  </si>
+  <si>
+    <t>8528999999</t>
+  </si>
+  <si>
+    <t>8539310000</t>
+  </si>
+  <si>
+    <t>8539490000</t>
+  </si>
+  <si>
+    <t>9006400000</t>
+  </si>
+  <si>
+    <t>9006690000</t>
+  </si>
+  <si>
+    <t>9025112000</t>
+  </si>
+  <si>
+    <t>9025112009</t>
+  </si>
+  <si>
+    <t>9504500000</t>
+  </si>
+  <si>
+    <t>9504500009</t>
+  </si>
+  <si>
+    <t>3920102300</t>
+  </si>
+  <si>
+    <t>3920108100</t>
+  </si>
+  <si>
+    <t>39234000000</t>
+  </si>
+  <si>
+    <t>3923409999</t>
+  </si>
+  <si>
+    <t>4819600000</t>
+  </si>
+  <si>
+    <t>7010200000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7010907100</t>
+  </si>
+  <si>
+    <t>7010907900</t>
+  </si>
+  <si>
+    <t>8450900000</t>
+  </si>
+  <si>
+    <t>8506900000</t>
+  </si>
+  <si>
+    <t>8508700000</t>
+  </si>
+  <si>
+    <t>8508700009</t>
+  </si>
+  <si>
+    <t>8509900000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8510900000</t>
+  </si>
+  <si>
+    <t>8519200000</t>
+  </si>
+  <si>
+    <t>8519209999</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,6 +1142,13 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC00000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -256,18 +1196,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -599,360 +1546,1395 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B58"/>
+  <sheetPr codeName="Лист1"/>
+  <dimension ref="A1:P58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="46.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="50.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="75.140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="40.5703125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="34.42578125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" style="6" customWidth="1"/>
+    <col min="12" max="12" width="20.5703125" style="6" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" style="6" customWidth="1"/>
+    <col min="14" max="15" width="9.140625" style="6"/>
+    <col min="16" max="16" width="16.140625" style="6" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="C1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="F4" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="B5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>3922</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="B6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>3923</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="F7" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>3924</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="B8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="B9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="B10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="B11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="B12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="B13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="B14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>4013</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="B15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="B16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="B17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>4819</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="F18" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>7010</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="F19" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="P19" s="6" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="B20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="B21" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
         <v>8418</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="B22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="B23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="B24" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="B25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="B26" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="B27" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="B28" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+      <c r="B29" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>8450</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="F30" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="B31" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="B32" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+      <c r="B33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
         <v>8467</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="B34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+      <c r="B35" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
         <v>8471</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
+      <c r="B36" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
         <v>8506</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E37" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
+      <c r="F37" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
         <v>8508</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E38" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
+      <c r="F38" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
         <v>8509</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
+      <c r="F39" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
         <v>8510</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E40" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="F40" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B42" s="3" t="s">
+      <c r="B41" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B43" s="3" t="s">
+      <c r="B42" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B44" s="3" t="s">
+      <c r="B43" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+      <c r="B44" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B46" s="3" t="s">
+      <c r="B45" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+      <c r="B46" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B48" s="3" t="s">
+      <c r="B47" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+      <c r="B48" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E49" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
+      <c r="F49" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="L49" s="6" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
         <v>8519</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
+      <c r="B50" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
         <v>8521</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
+      <c r="B51" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
+      <c r="B52" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
         <v>8527</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
+      <c r="B53" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
         <v>8528</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B55" s="3" t="s">
+      <c r="B54" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B56" s="3" t="s">
+      <c r="B55" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="J55" s="6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
+      <c r="B56" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="4" t="s">
+      <c r="B57" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
         <v>22</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="J58" s="6" t="s">
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -964,6 +2946,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -976,6 +2959,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
